--- a/global_data/day_data/603310.xlsx
+++ b/global_data/day_data/603310.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I170"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5338,6 +5340,64 @@
         <v>0.02105844625897614</v>
       </c>
     </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B171">
+        <v>16.61</v>
+      </c>
+      <c r="C171">
+        <v>17.2</v>
+      </c>
+      <c r="D171">
+        <v>16.61</v>
+      </c>
+      <c r="E171">
+        <v>17.08</v>
+      </c>
+      <c r="F171">
+        <v>1940870</v>
+      </c>
+      <c r="G171">
+        <v>33087274</v>
+      </c>
+      <c r="H171">
+        <v>69072000</v>
+      </c>
+      <c r="I171">
+        <v>0.02809922978920547</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B172">
+        <v>17.12</v>
+      </c>
+      <c r="C172">
+        <v>18.44</v>
+      </c>
+      <c r="D172">
+        <v>17.11</v>
+      </c>
+      <c r="E172">
+        <v>17.96</v>
+      </c>
+      <c r="F172">
+        <v>5903898</v>
+      </c>
+      <c r="G172">
+        <v>104925845</v>
+      </c>
+      <c r="H172">
+        <v>69072000</v>
+      </c>
+      <c r="I172">
+        <v>0.08547454829742877</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
